--- a/Mini-Projeto2/dadosAT.xlsx
+++ b/Mini-Projeto2/dadosAT.xlsx
@@ -210,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -281,7 +275,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -637,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -663,7 +657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -689,7 +683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -715,7 +709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -741,7 +735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -767,7 +761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -793,7 +787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -819,7 +813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -845,7 +839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -871,7 +865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
